--- a/assets/sample_data/marks_entry/Class12_Sec_1_.xlsx
+++ b/assets/sample_data/marks_entry/Class12_Sec_1_.xlsx
@@ -377,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,563 +413,464 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>3948</v>
+        <v>1130</v>
       </c>
       <c r="B2">
-        <v>3751</v>
+        <v>2776</v>
       </c>
       <c r="C2">
-        <v>9101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>3949</v>
+        <v>1131</v>
       </c>
       <c r="B3">
-        <v>1302</v>
+        <v>2780</v>
       </c>
       <c r="C3">
-        <v>9102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>3950</v>
+        <v>1132</v>
       </c>
       <c r="B4">
-        <v>1306</v>
+        <v>4868</v>
       </c>
       <c r="C4">
-        <v>9103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>3951</v>
+        <v>1133</v>
       </c>
       <c r="B5">
-        <v>4991</v>
+        <v>1736</v>
       </c>
       <c r="C5">
-        <v>9104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>3952</v>
+        <v>1134</v>
       </c>
       <c r="B6">
-        <v>4925</v>
+        <v>2027</v>
       </c>
       <c r="C6">
-        <v>9105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>3953</v>
+        <v>1135</v>
       </c>
       <c r="B7">
-        <v>1333</v>
+        <v>2002</v>
       </c>
       <c r="C7">
-        <v>9106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>3954</v>
+        <v>1136</v>
       </c>
       <c r="B8">
-        <v>1312</v>
+        <v>1846</v>
       </c>
       <c r="C8">
-        <v>9107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>3955</v>
+        <v>1137</v>
       </c>
       <c r="B9">
-        <v>1266</v>
+        <v>4294</v>
       </c>
       <c r="C9">
-        <v>9108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>3956</v>
+        <v>1138</v>
       </c>
       <c r="B10">
-        <v>1607</v>
+        <v>1642</v>
       </c>
       <c r="C10">
-        <v>9109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>3957</v>
+        <v>1139</v>
       </c>
       <c r="B11">
-        <v>3637</v>
+        <v>2032</v>
       </c>
       <c r="C11">
-        <v>9110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>3958</v>
+        <v>1140</v>
       </c>
       <c r="B12">
-        <v>1875</v>
+        <v>1670</v>
       </c>
       <c r="C12">
-        <v>9111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>3959</v>
+        <v>1141</v>
       </c>
       <c r="B13">
-        <v>2212</v>
+        <v>1669</v>
       </c>
       <c r="C13">
-        <v>9112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>3960</v>
+        <v>1142</v>
       </c>
       <c r="B14">
-        <v>2590</v>
+        <v>1690</v>
       </c>
       <c r="C14">
-        <v>9113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>3961</v>
+        <v>1143</v>
       </c>
       <c r="B15">
-        <v>4063</v>
+        <v>2367</v>
       </c>
       <c r="C15">
-        <v>9114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>3962</v>
+        <v>1144</v>
       </c>
       <c r="B16">
-        <v>2408</v>
+        <v>1643</v>
       </c>
       <c r="C16">
-        <v>9115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>3963</v>
+        <v>1145</v>
       </c>
       <c r="B17">
-        <v>2890</v>
+        <v>2048</v>
       </c>
       <c r="C17">
-        <v>9116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>3964</v>
+        <v>1146</v>
       </c>
       <c r="B18">
-        <v>5048</v>
+        <v>2437</v>
       </c>
       <c r="C18">
-        <v>9117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>3965</v>
+        <v>1147</v>
       </c>
       <c r="B19">
-        <v>3302</v>
+        <v>4590</v>
       </c>
       <c r="C19">
-        <v>9118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>3966</v>
+        <v>1148</v>
       </c>
       <c r="B20">
-        <v>2847</v>
+        <v>4107</v>
       </c>
       <c r="C20">
-        <v>9119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>3967</v>
+        <v>1149</v>
       </c>
       <c r="B21">
-        <v>1337</v>
+        <v>1982</v>
       </c>
       <c r="C21">
-        <v>9120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>3968</v>
+        <v>1150</v>
       </c>
       <c r="B22">
-        <v>1449</v>
+        <v>1967</v>
       </c>
       <c r="C22">
-        <v>9121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>3969</v>
+        <v>1151</v>
       </c>
       <c r="B23">
-        <v>3942</v>
+        <v>3176</v>
       </c>
       <c r="C23">
-        <v>9122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>3970</v>
+        <v>1152</v>
       </c>
       <c r="B24">
-        <v>1458</v>
+        <v>3750</v>
       </c>
       <c r="C24">
-        <v>9123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>3971</v>
+        <v>1153</v>
       </c>
       <c r="B25">
-        <v>4205</v>
+        <v>4236</v>
       </c>
       <c r="C25">
-        <v>9124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>3972</v>
+        <v>1154</v>
       </c>
       <c r="B26">
-        <v>1336</v>
+        <v>1737</v>
       </c>
       <c r="C26">
-        <v>9125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>3973</v>
+        <v>1155</v>
       </c>
       <c r="B27">
-        <v>4940</v>
+        <v>2042</v>
       </c>
       <c r="C27">
-        <v>9126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>3974</v>
+        <v>1156</v>
       </c>
       <c r="B28">
-        <v>3560</v>
+        <v>2671</v>
       </c>
       <c r="C28">
-        <v>9127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>3975</v>
+        <v>1157</v>
       </c>
       <c r="B29">
-        <v>2918</v>
+        <v>1971</v>
       </c>
       <c r="C29">
-        <v>9128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>3976</v>
+        <v>1158</v>
       </c>
       <c r="B30">
-        <v>3332</v>
+        <v>1655</v>
       </c>
       <c r="C30">
-        <v>9129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>3977</v>
+        <v>1159</v>
       </c>
       <c r="B31">
-        <v>1978</v>
+        <v>4630</v>
       </c>
       <c r="C31">
-        <v>9130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>3978</v>
+        <v>1160</v>
       </c>
       <c r="B32">
-        <v>1261</v>
+        <v>1735</v>
       </c>
       <c r="C32">
-        <v>9131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>3979</v>
+        <v>1161</v>
       </c>
       <c r="B33">
-        <v>1572</v>
+        <v>2039</v>
       </c>
       <c r="C33">
-        <v>9132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>3980</v>
+        <v>1162</v>
       </c>
       <c r="B34">
-        <v>4136</v>
+        <v>4219</v>
       </c>
       <c r="C34">
-        <v>9133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>3981</v>
+        <v>1163</v>
       </c>
       <c r="B35">
-        <v>1324</v>
+        <v>1664</v>
       </c>
       <c r="C35">
-        <v>9134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>3982</v>
+        <v>1164</v>
       </c>
       <c r="B36">
-        <v>3867</v>
+        <v>1869</v>
       </c>
       <c r="C36">
-        <v>9135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>3983</v>
+        <v>1165</v>
       </c>
       <c r="B37">
-        <v>1335</v>
+        <v>4095</v>
       </c>
       <c r="C37">
-        <v>9136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>3984</v>
+        <v>1166</v>
       </c>
       <c r="B38">
-        <v>3712</v>
+        <v>1986</v>
       </c>
       <c r="C38">
-        <v>9137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>3985</v>
+        <v>1167</v>
       </c>
       <c r="B39">
-        <v>1328</v>
+        <v>1705</v>
       </c>
       <c r="C39">
-        <v>9138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>3986</v>
+        <v>1168</v>
       </c>
       <c r="B40">
-        <v>3730</v>
+        <v>1657</v>
       </c>
       <c r="C40">
-        <v>9140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>3987</v>
+        <v>1169</v>
       </c>
       <c r="B41">
-        <v>3636</v>
+        <v>2052</v>
       </c>
       <c r="C41">
-        <v>9141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>3989</v>
+        <v>1170</v>
       </c>
       <c r="B42">
-        <v>2388</v>
+        <v>1674</v>
       </c>
       <c r="C42">
-        <v>9143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>3991</v>
+        <v>1171</v>
       </c>
       <c r="B43">
-        <v>3614</v>
+        <v>2436</v>
       </c>
       <c r="C43">
-        <v>9144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>3992</v>
-      </c>
-      <c r="B44">
-        <v>1260</v>
-      </c>
-      <c r="C44">
-        <v>9145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>3993</v>
-      </c>
-      <c r="B45">
-        <v>1286</v>
-      </c>
-      <c r="C45">
-        <v>9146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>3994</v>
-      </c>
-      <c r="B46">
-        <v>1294</v>
-      </c>
-      <c r="C46">
-        <v>9147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>3995</v>
-      </c>
-      <c r="B47">
-        <v>1295</v>
-      </c>
-      <c r="C47">
-        <v>9148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>3996</v>
-      </c>
-      <c r="B48">
-        <v>4071</v>
-      </c>
-      <c r="C48">
-        <v>9150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>3997</v>
-      </c>
-      <c r="B49">
-        <v>1906</v>
-      </c>
-      <c r="C49">
-        <v>9151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
-        <v>4171</v>
-      </c>
-      <c r="B50">
-        <v>1610</v>
-      </c>
-      <c r="C50">
-        <v>9139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51">
-        <v>4176</v>
-      </c>
-      <c r="B51">
-        <v>3219</v>
-      </c>
-      <c r="C51">
-        <v>9149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52">
-        <v>4177</v>
-      </c>
-      <c r="B52">
-        <v>5045</v>
-      </c>
-      <c r="C52">
-        <v>9142</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
